--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Projects\Pesticide_Compilation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="8760"/>
+    <workbookView xWindow="28980" yWindow="5820" windowWidth="19860" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Preferred</t>
   </si>
@@ -51,6 +49,69 @@
   </si>
   <si>
     <t>o-Phenylphenol</t>
+  </si>
+  <si>
+    <t>2 4 D</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>DDE (p,p)</t>
+  </si>
+  <si>
+    <t>p,p'-DDE</t>
+  </si>
+  <si>
+    <t>p\"-DDE</t>
+  </si>
+  <si>
+    <t>DDE - pp</t>
+  </si>
+  <si>
+    <t>DDD (p,p)</t>
+  </si>
+  <si>
+    <t>DDT (p,p)</t>
+  </si>
+  <si>
+    <t>p,p'-DDD</t>
+  </si>
+  <si>
+    <t>p,p'-DDT</t>
+  </si>
+  <si>
+    <t>p\"-DDD</t>
+  </si>
+  <si>
+    <t>p\"-DDT</t>
+  </si>
+  <si>
+    <t>DDD - pp</t>
+  </si>
+  <si>
+    <t>DDT - pp</t>
+  </si>
+  <si>
+    <t>BHC-gamma (Lindane)</t>
+  </si>
+  <si>
+    <t>HCH-gamma (Lindane)</t>
+  </si>
+  <si>
+    <t>O-Phenylphenol</t>
+  </si>
+  <si>
+    <t>DDD - p.p.</t>
+  </si>
+  <si>
+    <t>DDE - p.p.</t>
+  </si>
+  <si>
+    <t>DDT - p.p.</t>
+  </si>
+  <si>
+    <t>BHC - gamma (Lindane)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -368,18 +429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="26.85546875" customWidth="1"/>
+    <col min="1" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -409,8 +470,89 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="5820" windowWidth="19860" windowHeight="13980"/>
+    <workbookView xWindow="11460" yWindow="5820" windowWidth="37380" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Preferred</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>DDT - p.p.</t>
+  </si>
+  <si>
+    <t>Lindane</t>
   </si>
   <si>
     <t>BHC - gamma (Lindane)</t>
@@ -431,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -541,10 +544,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="5820" windowWidth="37380" windowHeight="13980"/>
+    <workbookView xWindow="2260" yWindow="12180" windowWidth="37520" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
   <si>
     <t>Preferred</t>
   </si>
@@ -60,9 +63,6 @@
     <t>DDE (p,p)</t>
   </si>
   <si>
-    <t>p,p'-DDE</t>
-  </si>
-  <si>
     <t>p\"-DDE</t>
   </si>
   <si>
@@ -75,12 +75,6 @@
     <t>DDT (p,p)</t>
   </si>
   <si>
-    <t>p,p'-DDD</t>
-  </si>
-  <si>
-    <t>p,p'-DDT</t>
-  </si>
-  <si>
     <t>p\"-DDD</t>
   </si>
   <si>
@@ -93,38 +87,639 @@
     <t>DDT - pp</t>
   </si>
   <si>
+    <t>O-Phenylphenol</t>
+  </si>
+  <si>
+    <t>DDD - p.p.</t>
+  </si>
+  <si>
+    <t>DDE - p.p.</t>
+  </si>
+  <si>
+    <t>DDT - p.p.</t>
+  </si>
+  <si>
+    <t>Lindane</t>
+  </si>
+  <si>
+    <t>p,p\'-DDE</t>
+  </si>
+  <si>
+    <t>p,p\'-DDD</t>
+  </si>
+  <si>
+    <t>p,p\'-DDT</t>
+  </si>
+  <si>
+    <t>DDE (o,p)</t>
+  </si>
+  <si>
+    <t>DDD (o,p)</t>
+  </si>
+  <si>
+    <t>DDT (o,p)</t>
+  </si>
+  <si>
+    <t>o,p\'-DDE</t>
+  </si>
+  <si>
+    <t>o,p\'-DDD</t>
+  </si>
+  <si>
+    <t>o,p\'-DDT</t>
+  </si>
+  <si>
+    <t>o\"-DDE</t>
+  </si>
+  <si>
+    <t>o\"-DDD</t>
+  </si>
+  <si>
+    <t>o\"-DDT</t>
+  </si>
+  <si>
+    <t>DDE - op</t>
+  </si>
+  <si>
+    <t>DDD - op</t>
+  </si>
+  <si>
+    <t>DDT - op</t>
+  </si>
+  <si>
+    <t>DDE - o.p.</t>
+  </si>
+  <si>
+    <t>DDD - o.p.</t>
+  </si>
+  <si>
+    <t>DDT - o.p.</t>
+  </si>
+  <si>
+    <t>gamma-HCH</t>
+  </si>
+  <si>
+    <t>BHC - gamma (Lindane)</t>
+  </si>
+  <si>
     <t>BHC-gamma (Lindane)</t>
   </si>
   <si>
     <t>HCH-gamma (Lindane)</t>
   </si>
   <si>
-    <t>O-Phenylphenol</t>
-  </si>
-  <si>
-    <t>DDD - p.p.</t>
-  </si>
-  <si>
-    <t>DDE - p.p.</t>
-  </si>
-  <si>
-    <t>DDT - p.p.</t>
-  </si>
-  <si>
-    <t>Lindane</t>
-  </si>
-  <si>
-    <t>BHC - gamma (Lindane)</t>
+    <t>Acifluorfen</t>
+  </si>
+  <si>
+    <t>Acifluorofen</t>
+  </si>
+  <si>
+    <t>alpha Cypermethrin</t>
+  </si>
+  <si>
+    <t>Cypermethrin-alpha</t>
+  </si>
+  <si>
+    <t>Alpha-cypermethrin</t>
+  </si>
+  <si>
+    <t>alpha Endosulphan</t>
+  </si>
+  <si>
+    <t>Endosulphan-alpha</t>
+  </si>
+  <si>
+    <t>alpha-Endosulfan</t>
+  </si>
+  <si>
+    <t>alpha-HCH</t>
+  </si>
+  <si>
+    <t>HCH-alpha</t>
+  </si>
+  <si>
+    <t>Amitrol</t>
+  </si>
+  <si>
+    <t>Amitrole</t>
+  </si>
+  <si>
+    <t>Azinphos ethyl</t>
+  </si>
+  <si>
+    <t>Azinphos-ethyl</t>
+  </si>
+  <si>
+    <t>Azinphos-methyl</t>
+  </si>
+  <si>
+    <t>Azinphos methyl</t>
+  </si>
+  <si>
+    <t>Beta BHC</t>
+  </si>
+  <si>
+    <t>HCH-beta</t>
+  </si>
+  <si>
+    <t>beta Cyfluthrin</t>
+  </si>
+  <si>
+    <t>Cyfluthrin-beta</t>
+  </si>
+  <si>
+    <t>beta Endosulphan</t>
+  </si>
+  <si>
+    <t>beta-Endosulfan</t>
+  </si>
+  <si>
+    <t>Endosulphan-beta</t>
+  </si>
+  <si>
+    <t>beta-HCH</t>
+  </si>
+  <si>
+    <t>BHC - beta</t>
+  </si>
+  <si>
+    <t>BHC - alpha</t>
+  </si>
+  <si>
+    <t>BHC - delta</t>
+  </si>
+  <si>
+    <t>HCH-delta</t>
+  </si>
+  <si>
+    <t>BHC - Total</t>
+  </si>
+  <si>
+    <t>HCH-Total</t>
+  </si>
+  <si>
+    <t>BHC (alpha)</t>
+  </si>
+  <si>
+    <t>BHC (beta)</t>
+  </si>
+  <si>
+    <t>BHC (delta)</t>
+  </si>
+  <si>
+    <t>BHC-alpha</t>
+  </si>
+  <si>
+    <t>BHC-beta</t>
+  </si>
+  <si>
+    <t>BHC-delta</t>
+  </si>
+  <si>
+    <t>Alt5</t>
+  </si>
+  <si>
+    <t>Alt6</t>
+  </si>
+  <si>
+    <t>Biteranol</t>
+  </si>
+  <si>
+    <t>Bitertanol</t>
+  </si>
+  <si>
+    <t>Bromophos-ethyl</t>
+  </si>
+  <si>
+    <t>Bromophos ethyl</t>
+  </si>
+  <si>
+    <t>Bromophos - ethyl</t>
+  </si>
+  <si>
+    <t>Buprimate</t>
+  </si>
+  <si>
+    <t>Bupirimate</t>
+  </si>
+  <si>
+    <t>Carfentrazone-ethyl</t>
+  </si>
+  <si>
+    <t>Carfentrazone Ethyl</t>
+  </si>
+  <si>
+    <t>Chlorantaniliprole</t>
+  </si>
+  <si>
+    <t>Chlorantraniliprole</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos-methyl</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos methyl</t>
+  </si>
+  <si>
+    <t>Chlorthal-dimethyl</t>
+  </si>
+  <si>
+    <t>Chlorthal dimethyl</t>
+  </si>
+  <si>
+    <t>Chlorthal - dimethyl</t>
+  </si>
+  <si>
+    <t>Chlordane-cis</t>
+  </si>
+  <si>
+    <t>cis-Chlordane</t>
+  </si>
+  <si>
+    <t>Clothianidin</t>
+  </si>
+  <si>
+    <t>Clothiandin</t>
+  </si>
+  <si>
+    <t>Cyfluthrin Î²</t>
+  </si>
+  <si>
+    <t>Cyhalothrin-lambda</t>
+  </si>
+  <si>
+    <t>Cyhalothrin Î»</t>
+  </si>
+  <si>
+    <t>Cypermethrin Î¬</t>
+  </si>
+  <si>
+    <t>Cyproconazole</t>
+  </si>
+  <si>
+    <t>Cypraconazole</t>
+  </si>
+  <si>
+    <t>Delta BHC</t>
+  </si>
+  <si>
+    <t>delta-HCH</t>
+  </si>
+  <si>
+    <t>Deltamethrin</t>
+  </si>
+  <si>
+    <t>Deltamethrin (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t>Difenoconazole</t>
+  </si>
+  <si>
+    <t>Difenoconazole (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t>Dimethomorph</t>
+  </si>
+  <si>
+    <t>Dimethomorph (-E&amp;Z)</t>
+  </si>
+  <si>
+    <t>Disulfoton</t>
+  </si>
+  <si>
+    <t>Disulfuton</t>
+  </si>
+  <si>
+    <t>Disulphoton</t>
+  </si>
+  <si>
+    <t>Dithianon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dithianon </t>
+  </si>
+  <si>
+    <t>Dithiocarbamates</t>
+  </si>
+  <si>
+    <t>Dithiocarbamate</t>
+  </si>
+  <si>
+    <t>Endosulfan-beta</t>
+  </si>
+  <si>
+    <t>Endosulfan - beta</t>
+  </si>
+  <si>
+    <t>Endosulfan-alpha</t>
+  </si>
+  <si>
+    <t>Endosulfan (beta)</t>
+  </si>
+  <si>
+    <t>Endosulfan sulphate</t>
+  </si>
+  <si>
+    <t>Endosulfan sulfate</t>
+  </si>
+  <si>
+    <t>Endosulfan Î¬</t>
+  </si>
+  <si>
+    <t>Endosulfan (alpha)</t>
+  </si>
+  <si>
+    <t>Endosulfan - Sulphate</t>
+  </si>
+  <si>
+    <t>Endosulfan-Total</t>
+  </si>
+  <si>
+    <t>Endosulphan - Total</t>
+  </si>
+  <si>
+    <t>Endosulphan Total</t>
+  </si>
+  <si>
+    <t>Endosulfan - Total</t>
+  </si>
+  <si>
+    <t>Ethoprophos</t>
+  </si>
+  <si>
+    <t>Ethoprofos</t>
+  </si>
+  <si>
+    <t>Etoxazole</t>
+  </si>
+  <si>
+    <t>Etoxazole*</t>
+  </si>
+  <si>
+    <t>Fenbutatin Oxide</t>
+  </si>
+  <si>
+    <t>Fenbutatin oxide</t>
+  </si>
+  <si>
+    <t>Fenthion-oxon sulfone</t>
+  </si>
+  <si>
+    <t>Fenthion-oxon sulfoxide</t>
+  </si>
+  <si>
+    <t>Fenthion oxon sulfone</t>
+  </si>
+  <si>
+    <t>Fenthion oxon sulfoxide</t>
+  </si>
+  <si>
+    <t>Fenvalerate</t>
+  </si>
+  <si>
+    <t>Fenvalarate</t>
+  </si>
+  <si>
+    <t>Fipronil sulphone</t>
+  </si>
+  <si>
+    <t>Fipronil sulfone</t>
+  </si>
+  <si>
+    <t>Fluazifop-p-butyl</t>
+  </si>
+  <si>
+    <t>Fluazifop-P-butyl</t>
+  </si>
+  <si>
+    <t>Flubendamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flubendamide </t>
+  </si>
+  <si>
+    <t>Fludioxonil</t>
+  </si>
+  <si>
+    <t>Fludioxinil</t>
+  </si>
+  <si>
+    <t>Flumiclorac-pentyl</t>
+  </si>
+  <si>
+    <t>Flumiclorac pentyl</t>
+  </si>
+  <si>
+    <t>Heptachlor Epoxide</t>
+  </si>
+  <si>
+    <t>Heptachlor epoxide</t>
+  </si>
+  <si>
+    <t>Hexachlorobenzene (HCB)</t>
+  </si>
+  <si>
+    <t>Hexachlorobenzene</t>
+  </si>
+  <si>
+    <t>Iodosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Iodosulfuron methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim-methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim - methyl</t>
+  </si>
+  <si>
+    <t>lambda Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Lambda-cyhalothrin</t>
+  </si>
+  <si>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>Malathion (Maldison)</t>
+  </si>
+  <si>
+    <t>Methomyl oxime</t>
+  </si>
+  <si>
+    <t>Methomyl Oxime</t>
+  </si>
+  <si>
+    <t>Methyl Bromide</t>
+  </si>
+  <si>
+    <t>Methyl bromide</t>
+  </si>
+  <si>
+    <t>Methyl Isothiocyanate</t>
+  </si>
+  <si>
+    <t>Methyl isothiocyanate</t>
+  </si>
+  <si>
+    <t>o.p Dicofol</t>
+  </si>
+  <si>
+    <t>Dicofol-o.p</t>
+  </si>
+  <si>
+    <t>p.p Dicofol</t>
+  </si>
+  <si>
+    <t>Dicofol-p.p</t>
+  </si>
+  <si>
+    <t>Parathion-ethyl</t>
+  </si>
+  <si>
+    <t>Parathion - ethyl</t>
+  </si>
+  <si>
+    <t>Parathion ethyl</t>
+  </si>
+  <si>
+    <t>Parathion-methyl</t>
+  </si>
+  <si>
+    <t>Parathion methyl</t>
+  </si>
+  <si>
+    <t>Parathion - methyl</t>
+  </si>
+  <si>
+    <t>Permethrin</t>
+  </si>
+  <si>
+    <t>Permethrin (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t>Phenothrin</t>
+  </si>
+  <si>
+    <t>Phenothrin (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t>Piperonyl butoxide</t>
+  </si>
+  <si>
+    <t>Piperonyl-butoxide</t>
+  </si>
+  <si>
+    <t>Pirimiphos-methyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos methyl</t>
+  </si>
+  <si>
+    <t>Pyrasulfotole</t>
+  </si>
+  <si>
+    <t>Pyrasulfatole</t>
+  </si>
+  <si>
+    <t>Pyrethrins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrethrins </t>
+  </si>
+  <si>
+    <t>Pyrethrins (sum of positives)</t>
+  </si>
+  <si>
+    <t>Pyriproxyfen</t>
+  </si>
+  <si>
+    <t>Pyriproxifen</t>
+  </si>
+  <si>
+    <t>Rimsulfuron</t>
+  </si>
+  <si>
+    <t>Rimosulfuron</t>
+  </si>
+  <si>
+    <t>tau - Fluvalinate</t>
+  </si>
+  <si>
+    <t>Fluvalinate-tau</t>
+  </si>
+  <si>
+    <t>tau Fluvalinate</t>
+  </si>
+  <si>
+    <t>tau-Fluvalinate</t>
+  </si>
+  <si>
+    <t>Tau-fluvalinate</t>
+  </si>
+  <si>
+    <t>Tolclofos-methyl</t>
+  </si>
+  <si>
+    <t>Tolclofos methyl</t>
+  </si>
+  <si>
+    <t>Tolclophos methyl</t>
+  </si>
+  <si>
+    <t>Tolcophos methyl</t>
+  </si>
+  <si>
+    <t>Trifloxysulfuron-sodium</t>
+  </si>
+  <si>
+    <t>Trifloxysulfuron sodium</t>
+  </si>
+  <si>
+    <t>Uniconazole-P</t>
+  </si>
+  <si>
+    <t>Uniconazole-p</t>
+  </si>
+  <si>
+    <t>Zetacypermethrin</t>
+  </si>
+  <si>
+    <t>Cypermethrin-zeta</t>
+  </si>
+  <si>
+    <t>Zeta cypermethrin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,13 +742,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,18 +1047,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +1075,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -485,73 +1107,813 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G86">
+      <sortCondition ref="A1:A86"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="12180" windowWidth="37520" windowHeight="16500"/>
+    <workbookView xWindow="2200" yWindow="12680" windowWidth="37120" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="220">
   <si>
     <t>Preferred</t>
   </si>
@@ -159,12 +159,6 @@
     <t>gamma-HCH</t>
   </si>
   <si>
-    <t>BHC - gamma (Lindane)</t>
-  </si>
-  <si>
-    <t>BHC-gamma (Lindane)</t>
-  </si>
-  <si>
     <t>HCH-gamma (Lindane)</t>
   </si>
   <si>
@@ -258,15 +252,6 @@
     <t>HCH-Total</t>
   </si>
   <si>
-    <t>BHC (alpha)</t>
-  </si>
-  <si>
-    <t>BHC (beta)</t>
-  </si>
-  <si>
-    <t>BHC (delta)</t>
-  </si>
-  <si>
     <t>BHC-alpha</t>
   </si>
   <si>
@@ -342,15 +327,9 @@
     <t>Clothiandin</t>
   </si>
   <si>
-    <t>Cyfluthrin Î²</t>
-  </si>
-  <si>
     <t>Cyhalothrin-lambda</t>
   </si>
   <si>
-    <t>Cyhalothrin Î»</t>
-  </si>
-  <si>
     <t>Cypermethrin Î¬</t>
   </si>
   <si>
@@ -369,21 +348,12 @@
     <t>Deltamethrin</t>
   </si>
   <si>
-    <t>Deltamethrin (cis &amp; trans)</t>
-  </si>
-  <si>
     <t>Difenoconazole</t>
   </si>
   <si>
-    <t>Difenoconazole (cis &amp; trans)</t>
-  </si>
-  <si>
     <t>Dimethomorph</t>
   </si>
   <si>
-    <t>Dimethomorph (-E&amp;Z)</t>
-  </si>
-  <si>
     <t>Disulfoton</t>
   </si>
   <si>
@@ -414,21 +384,12 @@
     <t>Endosulfan-alpha</t>
   </si>
   <si>
-    <t>Endosulfan (beta)</t>
-  </si>
-  <si>
     <t>Endosulfan sulphate</t>
   </si>
   <si>
     <t>Endosulfan sulfate</t>
   </si>
   <si>
-    <t>Endosulfan Î¬</t>
-  </si>
-  <si>
-    <t>Endosulfan (alpha)</t>
-  </si>
-  <si>
     <t>Endosulfan - Sulphate</t>
   </si>
   <si>
@@ -600,15 +561,9 @@
     <t>Permethrin</t>
   </si>
   <si>
-    <t>Permethrin (cis &amp; trans)</t>
-  </si>
-  <si>
     <t>Phenothrin</t>
   </si>
   <si>
-    <t>Phenothrin (cis &amp; trans)</t>
-  </si>
-  <si>
     <t>Piperonyl butoxide</t>
   </si>
   <si>
@@ -633,9 +588,6 @@
     <t xml:space="preserve">Pyrethrins </t>
   </si>
   <si>
-    <t>Pyrethrins (sum of positives)</t>
-  </si>
-  <si>
     <t>Pyriproxyfen</t>
   </si>
   <si>
@@ -694,6 +646,45 @@
   </si>
   <si>
     <t>Zeta cypermethrin</t>
+  </si>
+  <si>
+    <t>BHC \(alpha\)</t>
+  </si>
+  <si>
+    <t>BHC \(delta\)</t>
+  </si>
+  <si>
+    <t>BHC - gamma \(Lindane\)</t>
+  </si>
+  <si>
+    <t>BHC \(beta\)</t>
+  </si>
+  <si>
+    <t>BHC-gamma \(Lindane\)</t>
+  </si>
+  <si>
+    <t>Endosulfan \(alpha\)</t>
+  </si>
+  <si>
+    <t>Endosulfan \(beta\)</t>
+  </si>
+  <si>
+    <t>Difenoconazole \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Dimethomorph \(-E&amp;Z\)</t>
+  </si>
+  <si>
+    <t>Deltamethrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Permethrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Phenothrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Pyrethrins \(sum of positives\)</t>
   </si>
 </sst>
 </file>
@@ -742,8 +733,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -758,17 +751,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1076,10 +1071,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1109,570 +1104,588 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
         <v>207</v>
       </c>
-      <c r="C56" t="s">
-        <v>209</v>
-      </c>
       <c r="D56" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
         <v>77</v>
       </c>
-      <c r="D58" t="s">
-        <v>80</v>
+      <c r="F58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1682,228 +1695,191 @@
       <c r="B60" t="s">
         <v>73</v>
       </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>163</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>165</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s">
         <v>172</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C69" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>174</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>178</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
         <v>184</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B76" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="C76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>187</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>188</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B78" t="s">
         <v>190</v>
       </c>
-      <c r="B73" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>196</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="C79" t="s">
         <v>198</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>200</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>201</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B81" t="s">
         <v>203</v>
-      </c>
-      <c r="B79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>216</v>
-      </c>
-      <c r="B82" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B83" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Projects\Pesticide_Compilation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="12680" windowWidth="37120" windowHeight="13820"/>
+    <workbookView xWindow="2205" yWindow="12675" windowWidth="37125" windowHeight="13815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,20 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="223">
   <si>
     <t>Preferred</t>
   </si>
@@ -685,6 +690,15 @@
   </si>
   <si>
     <t>Pyrethrins \(sum of positives\)</t>
+  </si>
+  <si>
+    <t>Demeton-s-methyl</t>
+  </si>
+  <si>
+    <t>Demeton-S-methyl</t>
+  </si>
+  <si>
+    <t>Demeton-S-Methyl</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1042,19 +1056,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="7" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1118,7 +1132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1126,7 +1140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1153,7 +1167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1185,7 +1199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1193,7 +1207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1204,7 +1218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1212,7 +1226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -1261,7 +1275,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1269,7 +1283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1379,7 +1393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -1387,7 +1401,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1411,7 +1425,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1438,7 +1452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1449,7 +1463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -1457,7 +1471,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -1468,7 +1482,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -1512,7 +1526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -1528,7 +1542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -1536,7 +1550,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -1544,7 +1558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -1552,7 +1566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -1560,7 +1574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -1568,7 +1582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -1576,7 +1590,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -1592,7 +1606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -1704,7 +1718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -1712,7 +1726,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -1720,7 +1734,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -1731,7 +1745,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -1739,7 +1753,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -1747,7 +1761,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -1755,7 +1769,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -1763,7 +1777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>171</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>174</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>178</v>
       </c>
@@ -1801,7 +1815,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -1817,7 +1831,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -1844,7 +1858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -1874,12 +1888,23 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Projects\Pesticide_Compilation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="12675" windowWidth="37125" windowHeight="13815"/>
+    <workbookView xWindow="2900" yWindow="1180" windowWidth="40180" windowHeight="26560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,20 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
   <si>
     <t>Preferred</t>
   </si>
@@ -699,6 +694,12 @@
   </si>
   <si>
     <t>Demeton-S-Methyl</t>
+  </si>
+  <si>
+    <t>Endosulphan sulphate</t>
+  </si>
+  <si>
+    <t>Endosulphan-Total</t>
   </si>
 </sst>
 </file>
@@ -747,8 +748,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -765,19 +774,27 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1048,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,19 +1073,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="7" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1132,7 +1149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1140,7 +1157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1167,7 +1184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1175,7 +1192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1207,7 +1224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1218,7 +1235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1234,7 +1251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1245,7 +1262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1256,7 +1273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1264,7 +1281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -1275,7 +1292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1393,7 +1410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -1401,7 +1418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1425,7 +1442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1452,9 +1469,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
         <v>120</v>
@@ -1462,448 +1479,450 @@
       <c r="C37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E39" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E40" t="s">
         <v>117</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" t="s">
         <v>221</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C80" t="s">
         <v>222</v>
       </c>
     </row>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1180" windowWidth="40180" windowHeight="26560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40520" windowHeight="25280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
   <si>
     <t>Preferred</t>
   </si>
@@ -700,6 +700,24 @@
   </si>
   <si>
     <t>Endosulphan-Total</t>
+  </si>
+  <si>
+    <t>Endosulfan alpha</t>
+  </si>
+  <si>
+    <t>Endosulphan</t>
+  </si>
+  <si>
+    <t>Endosulfan</t>
+  </si>
+  <si>
+    <t>Demeton-s-methylsulfoxide</t>
+  </si>
+  <si>
+    <t>Demeton-S-methylsulfoxide</t>
+  </si>
+  <si>
+    <t>Filter</t>
   </si>
 </sst>
 </file>
@@ -748,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,11 +788,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -785,6 +812,9 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -795,6 +825,9 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1073,863 +1106,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="7" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>157</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>205</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>204</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>168</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>114</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>223</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D40" t="s">
         <v>121</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
         <v>224</v>
       </c>
-      <c r="B38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E41" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E42" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F42" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="C54" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="F56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B78" t="s">
         <v>187</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C78" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>189</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>196</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C80" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D80" t="s">
         <v>198</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E80" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>200</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>202</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" t="s">
-        <v>222</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G86">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H82">
+      <sortCondition ref="A1:A82"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40520" windowHeight="25280"/>
+    <workbookView xWindow="7540" yWindow="540" windowWidth="33520" windowHeight="23240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="259">
   <si>
     <t>Preferred</t>
   </si>
@@ -249,9 +249,6 @@
     <t>BHC - Total</t>
   </si>
   <si>
-    <t>HCH-Total</t>
-  </si>
-  <si>
     <t>BHC-alpha</t>
   </si>
   <si>
@@ -477,247 +474,334 @@
     <t>Heptachlor epoxide</t>
   </si>
   <si>
-    <t>Hexachlorobenzene (HCB)</t>
+    <t>Iodosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Iodosulfuron methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim-methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim methyl</t>
+  </si>
+  <si>
+    <t>Kresoxim - methyl</t>
+  </si>
+  <si>
+    <t>lambda Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Lambda-cyhalothrin</t>
+  </si>
+  <si>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>Malathion (Maldison)</t>
+  </si>
+  <si>
+    <t>Methomyl oxime</t>
+  </si>
+  <si>
+    <t>Methomyl Oxime</t>
+  </si>
+  <si>
+    <t>Methyl Bromide</t>
+  </si>
+  <si>
+    <t>Methyl bromide</t>
+  </si>
+  <si>
+    <t>Methyl Isothiocyanate</t>
+  </si>
+  <si>
+    <t>Methyl isothiocyanate</t>
+  </si>
+  <si>
+    <t>o.p Dicofol</t>
+  </si>
+  <si>
+    <t>Dicofol-o.p</t>
+  </si>
+  <si>
+    <t>p.p Dicofol</t>
+  </si>
+  <si>
+    <t>Dicofol-p.p</t>
+  </si>
+  <si>
+    <t>Parathion - ethyl</t>
+  </si>
+  <si>
+    <t>Parathion ethyl</t>
+  </si>
+  <si>
+    <t>Parathion-methyl</t>
+  </si>
+  <si>
+    <t>Parathion methyl</t>
+  </si>
+  <si>
+    <t>Parathion - methyl</t>
+  </si>
+  <si>
+    <t>Permethrin</t>
+  </si>
+  <si>
+    <t>Phenothrin</t>
+  </si>
+  <si>
+    <t>Piperonyl butoxide</t>
+  </si>
+  <si>
+    <t>Piperonyl-butoxide</t>
+  </si>
+  <si>
+    <t>Pirimiphos-methyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos methyl</t>
+  </si>
+  <si>
+    <t>Pyrasulfotole</t>
+  </si>
+  <si>
+    <t>Pyrasulfatole</t>
+  </si>
+  <si>
+    <t>Pyrethrins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrethrins </t>
+  </si>
+  <si>
+    <t>Pyriproxyfen</t>
+  </si>
+  <si>
+    <t>Pyriproxifen</t>
+  </si>
+  <si>
+    <t>Rimsulfuron</t>
+  </si>
+  <si>
+    <t>Rimosulfuron</t>
+  </si>
+  <si>
+    <t>tau - Fluvalinate</t>
+  </si>
+  <si>
+    <t>Fluvalinate-tau</t>
+  </si>
+  <si>
+    <t>tau Fluvalinate</t>
+  </si>
+  <si>
+    <t>tau-Fluvalinate</t>
+  </si>
+  <si>
+    <t>Tau-fluvalinate</t>
+  </si>
+  <si>
+    <t>Tolclofos-methyl</t>
+  </si>
+  <si>
+    <t>Tolclofos methyl</t>
+  </si>
+  <si>
+    <t>Tolclophos methyl</t>
+  </si>
+  <si>
+    <t>Tolcophos methyl</t>
+  </si>
+  <si>
+    <t>Trifloxysulfuron-sodium</t>
+  </si>
+  <si>
+    <t>Trifloxysulfuron sodium</t>
+  </si>
+  <si>
+    <t>Uniconazole-P</t>
+  </si>
+  <si>
+    <t>Uniconazole-p</t>
+  </si>
+  <si>
+    <t>Zetacypermethrin</t>
+  </si>
+  <si>
+    <t>Cypermethrin-zeta</t>
+  </si>
+  <si>
+    <t>Zeta cypermethrin</t>
+  </si>
+  <si>
+    <t>BHC \(alpha\)</t>
+  </si>
+  <si>
+    <t>BHC \(delta\)</t>
+  </si>
+  <si>
+    <t>BHC - gamma \(Lindane\)</t>
+  </si>
+  <si>
+    <t>BHC \(beta\)</t>
+  </si>
+  <si>
+    <t>BHC-gamma \(Lindane\)</t>
+  </si>
+  <si>
+    <t>Endosulfan \(alpha\)</t>
+  </si>
+  <si>
+    <t>Endosulfan \(beta\)</t>
+  </si>
+  <si>
+    <t>Difenoconazole \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Dimethomorph \(-E&amp;Z\)</t>
+  </si>
+  <si>
+    <t>Deltamethrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Permethrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Phenothrin \(cis &amp; trans\)</t>
+  </si>
+  <si>
+    <t>Pyrethrins \(sum of positives\)</t>
+  </si>
+  <si>
+    <t>Demeton-s-methyl</t>
+  </si>
+  <si>
+    <t>Demeton-S-methyl</t>
+  </si>
+  <si>
+    <t>Demeton-S-Methyl</t>
+  </si>
+  <si>
+    <t>Endosulphan sulphate</t>
+  </si>
+  <si>
+    <t>Endosulphan-Total</t>
+  </si>
+  <si>
+    <t>Endosulfan alpha</t>
+  </si>
+  <si>
+    <t>Endosulphan</t>
+  </si>
+  <si>
+    <t>Endosulfan</t>
+  </si>
+  <si>
+    <t>Demeton-s-methylsulfoxide</t>
+  </si>
+  <si>
+    <t>Demeton-S-methylsulfoxide</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>DDT</t>
+  </si>
+  <si>
+    <t>Ethylene Dichloride (EDC)</t>
+  </si>
+  <si>
+    <t>EDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenthion-oxon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenthion oxon </t>
+  </si>
+  <si>
+    <t>Fenvelarate</t>
+  </si>
+  <si>
+    <t>Endrin ketone</t>
+  </si>
+  <si>
+    <t>Keto-Endrin</t>
+  </si>
+  <si>
+    <t>Maldison</t>
+  </si>
+  <si>
+    <t>Metham-sodium</t>
+  </si>
+  <si>
+    <t>Metham</t>
+  </si>
+  <si>
+    <t>Parathion</t>
+  </si>
+  <si>
+    <t>Pymetrozine</t>
+  </si>
+  <si>
+    <t>Pymetrozin</t>
+  </si>
+  <si>
+    <t>Pyrimethanil</t>
+  </si>
+  <si>
+    <t>Pyrimenthanil</t>
+  </si>
+  <si>
+    <t>Total BHC</t>
+  </si>
+  <si>
+    <t>Total DDT Analogs</t>
+  </si>
+  <si>
+    <t>Chlordane-trans</t>
+  </si>
+  <si>
+    <t>trans-Chlordane</t>
+  </si>
+  <si>
+    <t>Triadimefon</t>
+  </si>
+  <si>
+    <t>Triadimefon Total</t>
+  </si>
+  <si>
+    <t>Ethylene dichloride \(EDC\)</t>
+  </si>
+  <si>
+    <t>Malathion \(Maldison\)</t>
+  </si>
+  <si>
+    <t>DDT Total</t>
+  </si>
+  <si>
+    <t>HCH</t>
+  </si>
+  <si>
+    <t>HCB-Total</t>
+  </si>
+  <si>
+    <t>Alpha BHC</t>
+  </si>
+  <si>
+    <t>HCB</t>
   </si>
   <si>
     <t>Hexachlorobenzene</t>
   </si>
   <si>
-    <t>Iodosulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Iodosulfuron methyl</t>
-  </si>
-  <si>
-    <t>Kresoxim-methyl</t>
-  </si>
-  <si>
-    <t>Kresoxim methyl</t>
-  </si>
-  <si>
-    <t>Kresoxim - methyl</t>
-  </si>
-  <si>
-    <t>lambda Cyhalothrin</t>
-  </si>
-  <si>
-    <t>Lambda-cyhalothrin</t>
-  </si>
-  <si>
-    <t>Malathion</t>
-  </si>
-  <si>
-    <t>Malathion (Maldison)</t>
-  </si>
-  <si>
-    <t>Methomyl oxime</t>
-  </si>
-  <si>
-    <t>Methomyl Oxime</t>
-  </si>
-  <si>
-    <t>Methyl Bromide</t>
-  </si>
-  <si>
-    <t>Methyl bromide</t>
-  </si>
-  <si>
-    <t>Methyl Isothiocyanate</t>
-  </si>
-  <si>
-    <t>Methyl isothiocyanate</t>
-  </si>
-  <si>
-    <t>o.p Dicofol</t>
-  </si>
-  <si>
-    <t>Dicofol-o.p</t>
-  </si>
-  <si>
-    <t>p.p Dicofol</t>
-  </si>
-  <si>
-    <t>Dicofol-p.p</t>
-  </si>
-  <si>
-    <t>Parathion-ethyl</t>
-  </si>
-  <si>
-    <t>Parathion - ethyl</t>
-  </si>
-  <si>
-    <t>Parathion ethyl</t>
-  </si>
-  <si>
-    <t>Parathion-methyl</t>
-  </si>
-  <si>
-    <t>Parathion methyl</t>
-  </si>
-  <si>
-    <t>Parathion - methyl</t>
-  </si>
-  <si>
-    <t>Permethrin</t>
-  </si>
-  <si>
-    <t>Phenothrin</t>
-  </si>
-  <si>
-    <t>Piperonyl butoxide</t>
-  </si>
-  <si>
-    <t>Piperonyl-butoxide</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl</t>
-  </si>
-  <si>
-    <t>Pirimiphos methyl</t>
-  </si>
-  <si>
-    <t>Pyrasulfotole</t>
-  </si>
-  <si>
-    <t>Pyrasulfatole</t>
-  </si>
-  <si>
-    <t>Pyrethrins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrethrins </t>
-  </si>
-  <si>
-    <t>Pyriproxyfen</t>
-  </si>
-  <si>
-    <t>Pyriproxifen</t>
-  </si>
-  <si>
-    <t>Rimsulfuron</t>
-  </si>
-  <si>
-    <t>Rimosulfuron</t>
-  </si>
-  <si>
-    <t>tau - Fluvalinate</t>
-  </si>
-  <si>
-    <t>Fluvalinate-tau</t>
-  </si>
-  <si>
-    <t>tau Fluvalinate</t>
-  </si>
-  <si>
-    <t>tau-Fluvalinate</t>
-  </si>
-  <si>
-    <t>Tau-fluvalinate</t>
-  </si>
-  <si>
-    <t>Tolclofos-methyl</t>
-  </si>
-  <si>
-    <t>Tolclofos methyl</t>
-  </si>
-  <si>
-    <t>Tolclophos methyl</t>
-  </si>
-  <si>
-    <t>Tolcophos methyl</t>
-  </si>
-  <si>
-    <t>Trifloxysulfuron-sodium</t>
-  </si>
-  <si>
-    <t>Trifloxysulfuron sodium</t>
-  </si>
-  <si>
-    <t>Uniconazole-P</t>
-  </si>
-  <si>
-    <t>Uniconazole-p</t>
-  </si>
-  <si>
-    <t>Zetacypermethrin</t>
-  </si>
-  <si>
-    <t>Cypermethrin-zeta</t>
-  </si>
-  <si>
-    <t>Zeta cypermethrin</t>
-  </si>
-  <si>
-    <t>BHC \(alpha\)</t>
-  </si>
-  <si>
-    <t>BHC \(delta\)</t>
-  </si>
-  <si>
-    <t>BHC - gamma \(Lindane\)</t>
-  </si>
-  <si>
-    <t>BHC \(beta\)</t>
-  </si>
-  <si>
-    <t>BHC-gamma \(Lindane\)</t>
-  </si>
-  <si>
-    <t>Endosulfan \(alpha\)</t>
-  </si>
-  <si>
-    <t>Endosulfan \(beta\)</t>
-  </si>
-  <si>
-    <t>Difenoconazole \(cis &amp; trans\)</t>
-  </si>
-  <si>
-    <t>Dimethomorph \(-E&amp;Z\)</t>
-  </si>
-  <si>
-    <t>Deltamethrin \(cis &amp; trans\)</t>
-  </si>
-  <si>
-    <t>Permethrin \(cis &amp; trans\)</t>
-  </si>
-  <si>
-    <t>Phenothrin \(cis &amp; trans\)</t>
-  </si>
-  <si>
-    <t>Pyrethrins \(sum of positives\)</t>
-  </si>
-  <si>
-    <t>Demeton-s-methyl</t>
-  </si>
-  <si>
-    <t>Demeton-S-methyl</t>
-  </si>
-  <si>
-    <t>Demeton-S-Methyl</t>
-  </si>
-  <si>
-    <t>Endosulphan sulphate</t>
-  </si>
-  <si>
-    <t>Endosulphan-Total</t>
-  </si>
-  <si>
-    <t>Endosulfan alpha</t>
-  </si>
-  <si>
-    <t>Endosulphan</t>
-  </si>
-  <si>
-    <t>Endosulfan</t>
-  </si>
-  <si>
-    <t>Demeton-s-methylsulfoxide</t>
-  </si>
-  <si>
-    <t>Demeton-S-methylsulfoxide</t>
-  </si>
-  <si>
-    <t>Filter</t>
+    <t>Hexachlorobenzene \(HCB\)</t>
   </si>
 </sst>
 </file>
@@ -766,8 +850,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -801,7 +899,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -815,6 +913,13 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -828,6 +933,13 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1121,7 +1233,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1139,15 +1251,15 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1167,7 +1279,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1178,7 +1290,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -1189,7 +1301,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1200,7 +1312,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -1211,7 +1323,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -1222,112 +1334,112 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -1338,21 +1450,21 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1366,869 +1478,1014 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
         <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
         <v>171</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>172</v>
-      </c>
-      <c r="D70" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>355</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>400</v>
+      </c>
+      <c r="B81" t="s">
         <v>196</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>197</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>405</v>
+      </c>
+      <c r="B82" t="s">
         <v>198</v>
       </c>
-      <c r="E80" t="s">
+      <c r="C82" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" t="s">
-        <v>203</v>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>415</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>420</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>425</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>430</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>435</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>440</v>
+      </c>
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>445</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>450</v>
+      </c>
+      <c r="B90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>455</v>
+      </c>
+      <c r="B91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>460</v>
+      </c>
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>465</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
-    <sortState ref="A2:H82">
-      <sortCondition ref="A1:A82"/>
+    <sortState ref="A2:H92">
+      <sortCondition ref="A1:A92"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Projects\Pesticide_Compilation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="540" windowWidth="33520" windowHeight="23240"/>
+    <workbookView xWindow="7545" yWindow="540" windowWidth="33525" windowHeight="23235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +19,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -453,9 +458,6 @@
     <t>Flubendamide</t>
   </si>
   <si>
-    <t xml:space="preserve">Flubendamide </t>
-  </si>
-  <si>
     <t>Fludioxonil</t>
   </si>
   <si>
@@ -802,6 +804,9 @@
   </si>
   <si>
     <t>Hexachlorobenzene \(HCB\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flubendiamide </t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1215,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1220,20 +1225,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="8" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1257,7 +1262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>35</v>
       </c>
@@ -1343,7 +1348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>60</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>65</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>70</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>75</v>
       </c>
@@ -1437,7 +1442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>80</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>85</v>
       </c>
@@ -1456,13 +1461,13 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
         <v>154</v>
       </c>
-      <c r="D18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>95</v>
       </c>
@@ -1487,21 +1492,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>100</v>
       </c>
       <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" t="s">
         <v>201</v>
       </c>
-      <c r="C21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>105</v>
       </c>
@@ -1512,21 +1517,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>135</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1654,57 +1659,57 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>145</v>
       </c>
       <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" t="s">
         <v>224</v>
       </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>150</v>
       </c>
       <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
         <v>216</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>217</v>
       </c>
-      <c r="D32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>165</v>
       </c>
@@ -1712,10 +1717,10 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>170</v>
       </c>
@@ -1723,10 +1728,10 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>175</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>185</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>190</v>
       </c>
@@ -1782,15 +1787,15 @@
         <v>116</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
         <v>119</v>
@@ -1802,7 +1807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>200</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -1822,7 +1827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -1839,24 +1844,24 @@
         <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>210</v>
       </c>
       <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
         <v>222</v>
       </c>
-      <c r="C44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>215</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>220</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>225</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>230</v>
       </c>
@@ -1900,7 +1905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>235</v>
       </c>
@@ -1911,7 +1916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>240</v>
       </c>
@@ -1922,7 +1927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>245</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>250</v>
       </c>
@@ -1944,7 +1949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>255</v>
       </c>
@@ -1952,52 +1957,52 @@
         <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>260</v>
       </c>
       <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
         <v>143</v>
       </c>
-      <c r="C54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>265</v>
       </c>
       <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s">
         <v>145</v>
       </c>
-      <c r="C55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>270</v>
       </c>
       <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
         <v>188</v>
       </c>
-      <c r="C56" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>189</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>190</v>
       </c>
-      <c r="F56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>275</v>
       </c>
@@ -2008,10 +2013,10 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>280</v>
       </c>
@@ -2022,13 +2027,13 @@
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>285</v>
       </c>
@@ -2045,13 +2050,13 @@
         <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>290</v>
       </c>
@@ -2062,7 +2067,7 @@
         <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
         <v>104</v>
@@ -2074,7 +2079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>295</v>
       </c>
@@ -2082,10 +2087,10 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
@@ -2094,290 +2099,290 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>305</v>
       </c>
       <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
         <v>147</v>
       </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>315</v>
       </c>
       <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
         <v>149</v>
       </c>
-      <c r="C64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>320</v>
       </c>
       <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>152</v>
       </c>
-      <c r="D65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>325</v>
       </c>
       <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
         <v>156</v>
       </c>
-      <c r="C66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>330</v>
       </c>
       <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
         <v>158</v>
       </c>
-      <c r="C67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>335</v>
       </c>
       <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
         <v>160</v>
       </c>
-      <c r="C68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>340</v>
       </c>
       <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
         <v>162</v>
       </c>
-      <c r="C69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>345</v>
       </c>
       <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
         <v>170</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>171</v>
       </c>
-      <c r="D70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
         <v>168</v>
       </c>
-      <c r="D71" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>355</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>360</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>365</v>
       </c>
       <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
         <v>175</v>
       </c>
-      <c r="C74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>370</v>
       </c>
       <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
         <v>177</v>
       </c>
-      <c r="C75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>375</v>
       </c>
       <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" t="s">
         <v>179</v>
       </c>
-      <c r="C76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>380</v>
       </c>
       <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s">
         <v>181</v>
       </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
       <c r="D77" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>385</v>
       </c>
       <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s">
         <v>183</v>
       </c>
-      <c r="C78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>390</v>
       </c>
       <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>395</v>
       </c>
       <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
         <v>192</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>193</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>194</v>
       </c>
-      <c r="E80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>400</v>
       </c>
       <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
         <v>196</v>
       </c>
-      <c r="C81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>405</v>
       </c>
       <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
         <v>198</v>
       </c>
-      <c r="C82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>415</v>
       </c>
       <c r="B83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="C83" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>420</v>
       </c>
       <c r="B84" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" t="s">
         <v>231</v>
       </c>
-      <c r="C84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>425</v>
       </c>
@@ -2385,101 +2390,101 @@
         <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>430</v>
       </c>
       <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
         <v>234</v>
       </c>
-      <c r="C86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>440</v>
       </c>
       <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
         <v>237</v>
       </c>
-      <c r="C88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>445</v>
       </c>
       <c r="B89" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s">
         <v>240</v>
       </c>
-      <c r="C89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>450</v>
       </c>
       <c r="B90" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" t="s">
         <v>242</v>
       </c>
-      <c r="C90" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>455</v>
       </c>
       <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
         <v>246</v>
       </c>
-      <c r="C91" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>460</v>
       </c>
       <c r="B92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" t="s">
         <v>248</v>
       </c>
-      <c r="C92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>465</v>
       </c>
       <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" t="s">
         <v>257</v>
-      </c>
-      <c r="C93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -722,12 +722,6 @@
     <t>EDC</t>
   </si>
   <si>
-    <t xml:space="preserve">Fenthion-oxon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenthion oxon </t>
-  </si>
-  <si>
     <t>Fenvelarate</t>
   </si>
   <si>
@@ -807,6 +801,12 @@
   </si>
   <si>
     <t xml:space="preserve">Flubendiamide </t>
+  </si>
+  <si>
+    <t>Fenthion oxon</t>
+  </si>
+  <si>
+    <t>Fenthion-oxon</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,10 +1525,10 @@
         <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
@@ -2113,10 +2113,10 @@
         <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
         <v>167</v>
@@ -2365,7 +2365,7 @@
         <v>228</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" t="s">
         <v>229</v>
@@ -2376,10 +2376,10 @@
         <v>420</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,10 +2398,10 @@
         <v>430</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2412,10 @@
         <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,10 +2423,10 @@
         <v>440</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,10 +2434,10 @@
         <v>445</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,10 +2445,10 @@
         <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2456,10 +2456,10 @@
         <v>455</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,10 +2467,10 @@
         <v>460</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" t="s">
         <v>255</v>
-      </c>
-      <c r="D93" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
   <si>
     <t>Preferred</t>
   </si>
@@ -802,6 +802,24 @@
   </si>
   <si>
     <t>Hexachlorobenzene \(HCB\)</t>
+  </si>
+  <si>
+    <t>o,p\"-DDD</t>
+  </si>
+  <si>
+    <t>p,p\"-DDD</t>
+  </si>
+  <si>
+    <t>o,p\"-DDE</t>
+  </si>
+  <si>
+    <t>p,p\"-DDE</t>
+  </si>
+  <si>
+    <t>o,p\"-DDT</t>
+  </si>
+  <si>
+    <t>p,p\"-DDT</t>
   </si>
 </sst>
 </file>
@@ -850,8 +868,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -899,7 +919,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -920,6 +940,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -940,6 +961,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1210,7 +1232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1220,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1437,7 +1459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>80</v>
       </c>
@@ -1448,7 +1470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>85</v>
       </c>
@@ -1462,7 +1484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -1476,7 +1498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>95</v>
       </c>
@@ -1487,7 +1509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>105</v>
       </c>
@@ -1512,7 +1534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>107</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1545,8 +1567,11 @@
       <c r="F24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1565,8 +1590,11 @@
       <c r="F25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -1585,8 +1613,11 @@
       <c r="F26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1605,8 +1636,11 @@
       <c r="F27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1625,8 +1659,11 @@
       <c r="F28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>135</v>
       </c>
@@ -1645,8 +1682,11 @@
       <c r="F29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1657,7 +1697,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>145</v>
       </c>
@@ -1668,7 +1708,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>150</v>
       </c>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1232,7 +1232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="540" windowWidth="33520" windowHeight="23240"/>
+    <workbookView xWindow="2280" yWindow="3200" windowWidth="40680" windowHeight="23240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="279">
   <si>
     <t>Preferred</t>
   </si>
@@ -820,13 +820,55 @@
   </si>
   <si>
     <t>p,p\"-DDT</t>
+  </si>
+  <si>
+    <t>a-BHC</t>
+  </si>
+  <si>
+    <t>b-BHC</t>
+  </si>
+  <si>
+    <t>d-BHC</t>
+  </si>
+  <si>
+    <t>DDD-op</t>
+  </si>
+  <si>
+    <t>DDD-pp</t>
+  </si>
+  <si>
+    <t>DDE-op</t>
+  </si>
+  <si>
+    <t>DDE-pp</t>
+  </si>
+  <si>
+    <t>DDT-op</t>
+  </si>
+  <si>
+    <t>DDT-pp</t>
+  </si>
+  <si>
+    <t>Demeton-S-Methyl Sulfoxide</t>
+  </si>
+  <si>
+    <t>Endosulfan Sulfate</t>
+  </si>
+  <si>
+    <t>Heptachlor exo-epoxide</t>
+  </si>
+  <si>
+    <t>Heptachlor-exo-epoxide</t>
+  </si>
+  <si>
+    <t>Lambda Cyhalothrin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +892,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -859,7 +906,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -867,8 +914,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -912,14 +974,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -941,6 +1044,25 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -962,6 +1084,25 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1240,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1459,7 +1600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>80</v>
       </c>
@@ -1470,7 +1611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>85</v>
       </c>
@@ -1483,8 +1624,11 @@
       <c r="D18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -1498,7 +1642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>95</v>
       </c>
@@ -1509,7 +1653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -1523,7 +1667,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>105</v>
       </c>
@@ -1534,7 +1678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>107</v>
       </c>
@@ -1548,7 +1692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1570,8 +1714,11 @@
       <c r="G24" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1593,8 +1740,11 @@
       <c r="G25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -1616,8 +1766,11 @@
       <c r="G26" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1639,8 +1792,11 @@
       <c r="G27" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1662,8 +1818,11 @@
       <c r="G28" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>135</v>
       </c>
@@ -1685,8 +1844,11 @@
       <c r="G29" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1697,7 +1859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>145</v>
       </c>
@@ -1707,8 +1869,11 @@
       <c r="C31" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>150</v>
       </c>
@@ -1722,7 +1887,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>155</v>
       </c>
@@ -1733,7 +1898,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>160</v>
       </c>
@@ -1744,7 +1909,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>165</v>
       </c>
@@ -1755,7 +1920,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>170</v>
       </c>
@@ -1766,7 +1931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>175</v>
       </c>
@@ -1780,7 +1945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -1791,7 +1956,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>185</v>
       </c>
@@ -1802,7 +1967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>190</v>
       </c>
@@ -1824,8 +1989,9 @@
       <c r="G40" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>195</v>
       </c>
@@ -1841,8 +2007,11 @@
       <c r="E41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="F41" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>200</v>
       </c>
@@ -1862,7 +2031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -1884,8 +2053,9 @@
       <c r="G43" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>210</v>
       </c>
@@ -1896,7 +2066,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>215</v>
       </c>
@@ -1907,7 +2077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>220</v>
       </c>
@@ -1918,7 +2088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>225</v>
       </c>
@@ -1929,7 +2099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>230</v>
       </c>
@@ -1940,7 +2110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>235</v>
       </c>
@@ -1951,7 +2121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>240</v>
       </c>
@@ -1962,7 +2132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>245</v>
       </c>
@@ -1973,7 +2143,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>250</v>
       </c>
@@ -1984,7 +2154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>255</v>
       </c>
@@ -1995,7 +2165,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>260</v>
       </c>
@@ -2006,7 +2176,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>265</v>
       </c>
@@ -2017,7 +2187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>270</v>
       </c>
@@ -2037,7 +2207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>275</v>
       </c>
@@ -2050,8 +2220,11 @@
       <c r="D57" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="E57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>280</v>
       </c>
@@ -2068,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>285</v>
       </c>
@@ -2090,8 +2263,11 @@
       <c r="G59" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>290</v>
       </c>
@@ -2113,8 +2289,11 @@
       <c r="G60" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>295</v>
       </c>
@@ -2134,7 +2313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>296</v>
       </c>
@@ -2154,371 +2333,382 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>305</v>
       </c>
       <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
         <v>147</v>
       </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
         <v>315</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>149</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>320</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>152</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>325</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>156</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>330</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>158</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>335</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>340</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>162</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>345</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>170</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>171</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>350</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>239</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>168</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>355</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>173</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>360</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>174</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>365</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>175</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>370</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>177</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>375</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>179</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>380</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>181</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>182</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>385</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>183</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>390</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
         <v>395</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>193</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>194</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>400</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>196</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
         <v>405</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>198</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>415</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>229</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>250</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
         <v>420</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>231</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
         <v>425</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>135</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>430</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>234</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>435</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>156</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>236</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
         <v>440</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>237</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
         <v>445</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>240</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
         <v>450</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>242</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
         <v>455</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>246</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
         <v>460</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>248</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
         <v>465</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>257</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>258</v>
       </c>
     </row>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3200" windowWidth="40680" windowHeight="23240"/>
+    <workbookView xWindow="6360" yWindow="1860" windowWidth="40900" windowHeight="23240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="283">
   <si>
     <t>Preferred</t>
   </si>
@@ -738,12 +738,6 @@
     <t>Maldison</t>
   </si>
   <si>
-    <t>Metham-sodium</t>
-  </si>
-  <si>
-    <t>Metham</t>
-  </si>
-  <si>
     <t>Parathion</t>
   </si>
   <si>
@@ -862,6 +856,24 @@
   </si>
   <si>
     <t>Lambda Cyhalothrin</t>
+  </si>
+  <si>
+    <t>Endosulfan II</t>
+  </si>
+  <si>
+    <t>Endosulfan I</t>
+  </si>
+  <si>
+    <t>A-BHC</t>
+  </si>
+  <si>
+    <t>B-BHC</t>
+  </si>
+  <si>
+    <t>Alt7</t>
+  </si>
+  <si>
+    <t>D-BHC</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1012,8 +1024,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,8 +1043,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1063,6 +1086,11 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1103,6 +1131,11 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1381,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1394,7 +1427,7 @@
     <col min="3" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
@@ -1419,8 +1452,11 @@
       <c r="H1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -1440,7 +1476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1451,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -1473,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -1495,7 +1531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>35</v>
       </c>
@@ -1506,7 +1542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>40</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>45</v>
       </c>
@@ -1531,7 +1567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -1542,7 +1578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1553,7 +1589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>60</v>
       </c>
@@ -1564,7 +1600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>65</v>
       </c>
@@ -1575,7 +1611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>70</v>
       </c>
@@ -1589,7 +1625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>75</v>
       </c>
@@ -1625,7 +1661,7 @@
         <v>155</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1686,10 +1722,10 @@
         <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1712,10 +1748,10 @@
         <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1738,10 +1774,10 @@
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1764,10 +1800,10 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1790,10 +1826,10 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1816,10 +1852,10 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1842,10 +1878,10 @@
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1870,7 +1906,7 @@
         <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1989,7 +2025,9 @@
       <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
@@ -2008,7 +2046,7 @@
         <v>118</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2053,7 +2091,9 @@
       <c r="G43" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
@@ -2110,7 +2150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>235</v>
       </c>
@@ -2121,7 +2161,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>240</v>
       </c>
@@ -2132,7 +2172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>245</v>
       </c>
@@ -2143,7 +2183,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>250</v>
       </c>
@@ -2154,7 +2194,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>255</v>
       </c>
@@ -2165,7 +2205,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>260</v>
       </c>
@@ -2176,7 +2216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>265</v>
       </c>
@@ -2187,7 +2227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>270</v>
       </c>
@@ -2207,7 +2247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>275</v>
       </c>
@@ -2218,506 +2258,492 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>203</v>
+      </c>
+      <c r="I57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>307</v>
+      </c>
+      <c r="B63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>325</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>330</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>335</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>340</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>345</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>350</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>355</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>360</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>365</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>370</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>375</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>380</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>385</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>390</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>400</v>
+      </c>
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>405</v>
+      </c>
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>415</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>420</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>425</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>430</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>435</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>445</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>450</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>455</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>460</v>
+      </c>
+      <c r="B91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>465</v>
+      </c>
+      <c r="B92" t="s">
         <v>255</v>
       </c>
-      <c r="E57" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1">
-        <v>280</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1">
-        <v>285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" t="s">
-        <v>206</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1">
-        <v>290</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1">
-        <v>295</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1">
-        <v>296</v>
-      </c>
-      <c r="B62" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C92" t="s">
         <v>254</v>
       </c>
-      <c r="F62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1">
-        <v>305</v>
-      </c>
-      <c r="B63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1">
-        <v>307</v>
-      </c>
-      <c r="B64" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>315</v>
-      </c>
-      <c r="B65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>320</v>
-      </c>
-      <c r="B66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>325</v>
-      </c>
-      <c r="B67" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>330</v>
-      </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>335</v>
-      </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>340</v>
-      </c>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>345</v>
-      </c>
-      <c r="B71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>350</v>
-      </c>
-      <c r="B72" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>355</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>360</v>
-      </c>
-      <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>365</v>
-      </c>
-      <c r="B75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>370</v>
-      </c>
-      <c r="B76" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>375</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>380</v>
-      </c>
-      <c r="B78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>385</v>
-      </c>
-      <c r="B79" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>390</v>
-      </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>395</v>
-      </c>
-      <c r="B81" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" t="s">
-        <v>194</v>
-      </c>
-      <c r="E81" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>400</v>
-      </c>
-      <c r="B82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>405</v>
-      </c>
-      <c r="B83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>415</v>
-      </c>
-      <c r="B84" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>420</v>
-      </c>
-      <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>425</v>
-      </c>
-      <c r="B86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>430</v>
-      </c>
-      <c r="B87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>435</v>
-      </c>
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>440</v>
-      </c>
-      <c r="B89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>445</v>
-      </c>
-      <c r="B90" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>450</v>
-      </c>
-      <c r="B91" t="s">
-        <v>242</v>
-      </c>
-      <c r="C91" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>455</v>
-      </c>
-      <c r="B92" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>460</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>465</v>
-      </c>
-      <c r="B94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D92" t="s">
         <v>256</v>
       </c>
-      <c r="D94" t="s">
-        <v>258</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H92">
-      <sortCondition ref="A1:A92"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1860" windowWidth="40900" windowHeight="23240"/>
+    <workbookView xWindow="12120" yWindow="1860" windowWidth="35140" windowHeight="23240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="286">
   <si>
     <t>Preferred</t>
   </si>
@@ -874,6 +874,15 @@
   </si>
   <si>
     <t>D-BHC</t>
+  </si>
+  <si>
+    <t>DDD-p,p</t>
+  </si>
+  <si>
+    <t>DDE-p,p</t>
+  </si>
+  <si>
+    <t>DDT-p,p</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1416,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1636,7 +1645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>80</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>85</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>95</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>105</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>107</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1779,8 +1788,11 @@
       <c r="H25" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1831,8 +1843,11 @@
       <c r="H27" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>135</v>
       </c>
@@ -1883,8 +1898,11 @@
       <c r="H29" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1895,7 +1913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>145</v>
       </c>
@@ -1909,7 +1927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>150</v>
       </c>
